--- a/BurntdownChart-BSPQ23-E3.xlsx
+++ b/BurntdownChart-BSPQ23-E3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sener\Documents\Nueva carpeta (7)\merge\BSPQ23-E3-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sener\Documents\Nueva carpeta (8)\BSPQ23-E3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A9E8D5-60D1-44DF-A898-788C312053DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE904F89-08E1-48B7-8B22-6F0DAE781E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{9E2B47A1-06A6-4BBE-BA64-FF84100AA513}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>May 1</t>
-  </si>
-  <si>
-    <t>May 2</t>
   </si>
   <si>
     <t>March-14</t>
@@ -258,12 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1097,7 @@
             <c:strRef>
               <c:f>Sprint2!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>April 10</c:v>
                 </c:pt>
@@ -1165,9 +1163,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>May 1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>May 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1242,9 +1237,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1287,7 +1279,7 @@
             <c:strRef>
               <c:f>Sprint2!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>April 10</c:v>
                 </c:pt>
@@ -1353,9 +1345,6 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>May 1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>May 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1430,9 +1419,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3167,310 +3153,310 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
         <v>0</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3485,19 +3471,19 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3740,19 +3726,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BurntdownChart-BSPQ23-E3.xlsx
+++ b/BurntdownChart-BSPQ23-E3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sener\Documents\Nueva carpeta (8)\BSPQ23-E3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sener\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE904F89-08E1-48B7-8B22-6F0DAE781E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9CD0FE-0DF0-4871-9244-49F063BB9D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{9E2B47A1-06A6-4BBE-BA64-FF84100AA513}"/>
+    <workbookView xWindow="30612" yWindow="-2028" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{9E2B47A1-06A6-4BBE-BA64-FF84100AA513}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -193,6 +194,69 @@
   </si>
   <si>
     <t>April-9</t>
+  </si>
+  <si>
+    <t>2th of May</t>
+  </si>
+  <si>
+    <t>3rd of May</t>
+  </si>
+  <si>
+    <t>4th of May</t>
+  </si>
+  <si>
+    <t>5th of May</t>
+  </si>
+  <si>
+    <t>6th of May</t>
+  </si>
+  <si>
+    <t>7th of May</t>
+  </si>
+  <si>
+    <t>8th of May</t>
+  </si>
+  <si>
+    <t>9th of May</t>
+  </si>
+  <si>
+    <t>10th of May</t>
+  </si>
+  <si>
+    <t>11th of May</t>
+  </si>
+  <si>
+    <t>12th of May</t>
+  </si>
+  <si>
+    <t>13th of May</t>
+  </si>
+  <si>
+    <t>14th of May</t>
+  </si>
+  <si>
+    <t>15th of May</t>
+  </si>
+  <si>
+    <t>16th of May</t>
+  </si>
+  <si>
+    <t>17th of May</t>
+  </si>
+  <si>
+    <t>18th of May</t>
+  </si>
+  <si>
+    <t>19th of May</t>
+  </si>
+  <si>
+    <t>20th of May</t>
+  </si>
+  <si>
+    <t>21st of May</t>
+  </si>
+  <si>
+    <t>22nd of May</t>
   </si>
 </sst>
 </file>
@@ -255,12 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,6 +1699,642 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Burntdown Chart Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2th of May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3rd of May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4th of May</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5th of May</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6th of May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7th of May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8th of May</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9th of May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10th of May</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11th of May</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12th of May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13th of May</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14th of May</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15th of May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16th of May</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17th of May</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18th of May</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19th of May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20th of May</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21st of May</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22nd of May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDE3-4156-8DB8-815107439D5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2th of May</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3rd of May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4th of May</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5th of May</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6th of May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7th of May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8th of May</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9th of May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10th of May</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11th of May</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12th of May</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13th of May</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14th of May</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15th of May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16th of May</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17th of May</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18th of May</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19th of May</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20th of May</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21st of May</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22nd of May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDE3-4156-8DB8-815107439D5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1172930527"/>
+        <c:axId val="1172928127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1172930527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172928127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1172928127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172930527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1713,6 +2415,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2230,6 +2972,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2807,6 +4065,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C68F4-E304-28F2-E62B-C1D94A97AB00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82731</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>729343</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFDBB2F-41F5-D324-3BC1-3A02DAE7091A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E068AC-42C8-4BBD-9C57-CB45CE186963}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3731,12 +5030,276 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3077ACC0-B6C5-4AF1-A6DB-3FAE8F11B007}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>